--- a/Datos_Prueba/Resultados/Test_FMT4/Excel_Filas_Ordenadas_3_DESC.xlsx
+++ b/Datos_Prueba/Resultados/Test_FMT4/Excel_Filas_Ordenadas_3_DESC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarciar\Documents\CAIXA\AutoHotKeyEGR\Datos_Prueba\Resultados\Test_FMT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDB7B70D-9E52-4C32-B371-C0BF05DCBECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08921E6E-C14C-4981-8BC5-13955EF0495E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24800" yWindow="740" windowWidth="17570" windowHeight="8220" xr2:uid="{A6E507A9-5DB3-4B53-BC7E-46ABC7D7F92A}"/>
+    <workbookView xWindow="24800" yWindow="740" windowWidth="17570" windowHeight="8220" xr2:uid="{75AE8206-EE82-4D2B-AD69-322F8906A7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Albert</t>
   </si>
@@ -56,15 +56,30 @@
     <t>kipling@waterfront.com</t>
   </si>
   <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Timepath Inc.</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>87 Orange Street</t>
+  </si>
+  <si>
+    <t>lpalmer@timepath.co.uk</t>
+  </si>
+  <si>
     <t>Doug</t>
   </si>
   <si>
     <t>Derrick</t>
   </si>
   <si>
-    <t>Timepath Inc.</t>
-  </si>
-  <si>
     <t>Analyst</t>
   </si>
   <si>
@@ -110,15 +125,30 @@
     <t>shamm@sugarwell.org</t>
   </si>
   <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Dorsey</t>
+  </si>
+  <si>
+    <t>MediCare</t>
+  </si>
+  <si>
+    <t>Medical Engineer</t>
+  </si>
+  <si>
+    <t>11 Crown Street</t>
+  </si>
+  <si>
+    <t>jdorsey@mc.com</t>
+  </si>
+  <si>
     <t>Michael</t>
   </si>
   <si>
     <t>Robertson</t>
   </si>
   <si>
-    <t>MediCare</t>
-  </si>
-  <si>
     <t>IT Specialist</t>
   </si>
   <si>
@@ -143,16 +173,28 @@
     <t>jsmith@itsolutions.co.uk</t>
   </si>
   <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Norton</t>
+  </si>
+  <si>
+    <t>Aperture Inc.</t>
+  </si>
+  <si>
+    <t>Scientist</t>
+  </si>
+  <si>
+    <t>13 White Rabbit Street</t>
+  </si>
+  <si>
+    <t>mnorton@aperture.us</t>
+  </si>
+  <si>
     <t>Jessie</t>
   </si>
   <si>
     <t>Marlowe</t>
-  </si>
-  <si>
-    <t>Aperture Inc.</t>
-  </si>
-  <si>
-    <t>Scientist</t>
   </si>
   <si>
     <t>27 Cheshire Street</t>
@@ -509,7 +551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEFEFCC-0F7E-4FE6-8EC1-656D8A283F6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E246EDF6-9EEF-48D8-9C4A-1C04126B33E8}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -559,27 +601,27 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>40799885412</v>
+        <v>40731653845</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>40799885412</v>
@@ -587,22 +629,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>40741785214</v>
@@ -610,22 +652,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>40712462257</v>
@@ -633,45 +675,45 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G6">
-        <v>40733652145</v>
+        <v>40791345621</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>40733652145</v>
@@ -679,22 +721,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>40716543298</v>
@@ -702,45 +744,45 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>40733154268</v>
+        <v>40731254562</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G10">
         <v>40733154268</v>
